--- a/output/MAUÁ_18048639000102.xlsx
+++ b/output/MAUÁ_18048639000102.xlsx
@@ -1296,10 +1296,10 @@
         <v>44165</v>
       </c>
       <c r="B83">
-        <v>0.88354311</v>
+        <v>0.8774303000000001</v>
       </c>
       <c r="C83">
-        <v>0.008889076146413766</v>
+        <v>0.005614849397465926</v>
       </c>
     </row>
   </sheetData>

--- a/output/MAUÁ_18048639000102.xlsx
+++ b/output/MAUÁ_18048639000102.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MAUÁ INSTITUCIONAL FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,920 +383,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41698</v>
       </c>
       <c r="B2">
-        <v>-0.003432600000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41729</v>
       </c>
       <c r="B3">
-        <v>0.0103742</v>
-      </c>
-      <c r="C3">
         <v>0.01385435646399835</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41759</v>
       </c>
       <c r="B4">
-        <v>0.02943790000000002</v>
-      </c>
-      <c r="C4">
         <v>0.01886796000927182</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41790</v>
       </c>
       <c r="B5">
-        <v>0.0439543</v>
-      </c>
-      <c r="C5">
         <v>0.01410128770273555</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41820</v>
       </c>
       <c r="B6">
-        <v>0.05250379999999999</v>
-      </c>
-      <c r="C6">
         <v>0.008189534733464843</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41851</v>
       </c>
       <c r="B7">
-        <v>0.05013639999999997</v>
-      </c>
-      <c r="C7">
         <v>-0.002249303042896389</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41882</v>
       </c>
       <c r="B8">
-        <v>0.0618574999999999</v>
-      </c>
-      <c r="C8">
         <v>0.01116150244863423</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41912</v>
       </c>
       <c r="B9">
-        <v>0.05875640000000004</v>
-      </c>
-      <c r="C9">
         <v>-0.002920448365246631</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41943</v>
       </c>
       <c r="B10">
-        <v>0.0537067</v>
-      </c>
-      <c r="C10">
         <v>-0.004769463495096771</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41973</v>
       </c>
       <c r="B11">
-        <v>0.06526100000000001</v>
-      </c>
-      <c r="C11">
         <v>0.0109653853392031</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42004</v>
       </c>
       <c r="B12">
-        <v>0.06899699999999998</v>
-      </c>
-      <c r="C12">
         <v>0.003507121728853368</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42035</v>
       </c>
       <c r="B13">
-        <v>0.09270230000000002</v>
-      </c>
-      <c r="C13">
         <v>0.02217527270890374</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42063</v>
       </c>
       <c r="B14">
-        <v>0.1008509</v>
-      </c>
-      <c r="C14">
         <v>0.007457291890023532</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42094</v>
       </c>
       <c r="B15">
-        <v>0.1149567</v>
-      </c>
-      <c r="C15">
         <v>0.01281354268775181</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42124</v>
       </c>
       <c r="B16">
-        <v>0.1300536999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01354043614429146</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42155</v>
       </c>
       <c r="B17">
-        <v>0.1400756999999999</v>
-      </c>
-      <c r="C17">
         <v>0.008868605093722559</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42185</v>
       </c>
       <c r="B18">
-        <v>0.1507168999999999</v>
-      </c>
-      <c r="C18">
         <v>0.00933376617008852</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42216</v>
       </c>
       <c r="B19">
-        <v>0.1642477</v>
-      </c>
-      <c r="C19">
         <v>0.01175858284518116</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42247</v>
       </c>
       <c r="B20">
-        <v>0.1761933</v>
-      </c>
-      <c r="C20">
         <v>0.01026035954376381</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42277</v>
       </c>
       <c r="B21">
-        <v>0.1862778</v>
-      </c>
-      <c r="C21">
         <v>0.008573845812588798</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42308</v>
       </c>
       <c r="B22">
-        <v>0.2009829999999999</v>
-      </c>
-      <c r="C22">
         <v>0.01239608462705766</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42338</v>
       </c>
       <c r="B23">
-        <v>0.2155658</v>
-      </c>
-      <c r="C23">
         <v>0.01214238669489909</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42369</v>
       </c>
       <c r="B24">
-        <v>0.2249905000000001</v>
-      </c>
-      <c r="C24">
         <v>0.007753344162858111</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42400</v>
       </c>
       <c r="B25">
-        <v>0.2534510000000001</v>
-      </c>
-      <c r="C25">
         <v>0.02323324140064753</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42429</v>
       </c>
       <c r="B26">
-        <v>0.2761711</v>
-      </c>
-      <c r="C26">
         <v>0.0181260376352963</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42460</v>
       </c>
       <c r="B27">
-        <v>0.2906719</v>
-      </c>
-      <c r="C27">
         <v>0.01136273968279022</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42490</v>
       </c>
       <c r="B28">
-        <v>0.3158508</v>
-      </c>
-      <c r="C28">
         <v>0.01950836614634599</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42521</v>
       </c>
       <c r="B29">
-        <v>0.321401</v>
-      </c>
-      <c r="C29">
         <v>0.004217955409534291</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42551</v>
       </c>
       <c r="B30">
-        <v>0.3260613999999999</v>
-      </c>
-      <c r="C30">
         <v>0.003526862776704442</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42582</v>
       </c>
       <c r="B31">
-        <v>0.3407552</v>
-      </c>
-      <c r="C31">
         <v>0.01108078404212653</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42613</v>
       </c>
       <c r="B32">
-        <v>0.3557176</v>
-      </c>
-      <c r="C32">
         <v>0.01115968075305607</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42643</v>
       </c>
       <c r="B33">
-        <v>0.3826913999999999</v>
-      </c>
-      <c r="C33">
         <v>0.01989632649159367</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42674</v>
       </c>
       <c r="B34">
-        <v>0.4055784</v>
-      </c>
-      <c r="C34">
         <v>0.01655250043502132</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42704</v>
       </c>
       <c r="B35">
-        <v>0.4105315</v>
-      </c>
-      <c r="C35">
         <v>0.003523887390415315</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42735</v>
       </c>
       <c r="B36">
-        <v>0.4381482000000001</v>
-      </c>
-      <c r="C36">
         <v>0.01957893177146341</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42766</v>
       </c>
       <c r="B37">
-        <v>0.4685888</v>
-      </c>
-      <c r="C37">
         <v>0.02116652511889927</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42794</v>
       </c>
       <c r="B38">
-        <v>0.5020964999999999</v>
-      </c>
-      <c r="C38">
         <v>0.02281625734855108</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42825</v>
       </c>
       <c r="B39">
-        <v>0.5148045000000001</v>
-      </c>
-      <c r="C39">
         <v>0.008460175494716893</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42855</v>
       </c>
       <c r="B40">
-        <v>0.5312697</v>
-      </c>
-      <c r="C40">
         <v>0.01086952144649689</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42886</v>
       </c>
       <c r="B41">
-        <v>0.5266168</v>
-      </c>
-      <c r="C41">
         <v>-0.003038589479044673</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42916</v>
       </c>
       <c r="B42">
-        <v>0.5359601000000001</v>
-      </c>
-      <c r="C42">
         <v>0.006120265413036341</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42947</v>
       </c>
       <c r="B43">
-        <v>0.5582525</v>
-      </c>
-      <c r="C43">
         <v>0.01451365826495099</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42978</v>
       </c>
       <c r="B44">
-        <v>0.5817937</v>
-      </c>
-      <c r="C44">
         <v>0.01510743605416964</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43008</v>
       </c>
       <c r="B45">
-        <v>0.6005843</v>
-      </c>
-      <c r="C45">
         <v>0.01187929879857275</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43039</v>
       </c>
       <c r="B46">
-        <v>0.6086535</v>
-      </c>
-      <c r="C46">
         <v>0.005041408940472447</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43069</v>
       </c>
       <c r="B47">
-        <v>0.6130236</v>
-      </c>
-      <c r="C47">
         <v>0.002716619831430567</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43100</v>
       </c>
       <c r="B48">
-        <v>0.6240102999999999</v>
-      </c>
-      <c r="C48">
         <v>0.00681124566311353</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43131</v>
       </c>
       <c r="B49">
-        <v>0.6386832</v>
-      </c>
-      <c r="C49">
         <v>0.00903497964267852</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43159</v>
       </c>
       <c r="B50">
-        <v>0.6511560999999999</v>
-      </c>
-      <c r="C50">
         <v>0.007611538337611412</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43190</v>
       </c>
       <c r="B51">
-        <v>0.6629332999999999</v>
-      </c>
-      <c r="C51">
         <v>0.007132699325036684</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43220</v>
       </c>
       <c r="B52">
-        <v>0.6633127999999999</v>
-      </c>
-      <c r="C52">
         <v>0.0002282111976470436</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43251</v>
       </c>
       <c r="B53">
-        <v>0.6482975</v>
-      </c>
-      <c r="C53">
         <v>-0.009027345908719009</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43281</v>
       </c>
       <c r="B54">
-        <v>0.6564327000000001</v>
-      </c>
-      <c r="C54">
         <v>0.004935516798393547</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43312</v>
       </c>
       <c r="B55">
-        <v>0.6663588</v>
-      </c>
-      <c r="C55">
         <v>0.005992455956707499</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43343</v>
       </c>
       <c r="B56">
-        <v>0.6746840000000001</v>
-      </c>
-      <c r="C56">
         <v>0.004996042869038764</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43373</v>
       </c>
       <c r="B57">
-        <v>0.6851126999999999</v>
-      </c>
-      <c r="C57">
         <v>0.006227264367486551</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43404</v>
       </c>
       <c r="B58">
-        <v>0.7175944000000001</v>
-      </c>
-      <c r="C58">
         <v>0.0192756840536541</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43434</v>
       </c>
       <c r="B59">
-        <v>0.7301769</v>
-      </c>
-      <c r="C59">
         <v>0.007325652668639382</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43465</v>
       </c>
       <c r="B60">
-        <v>0.7323221</v>
-      </c>
-      <c r="C60">
         <v>0.001239873217588228</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43496</v>
       </c>
       <c r="B61">
-        <v>0.7563964000000001</v>
-      </c>
-      <c r="C61">
         <v>0.01389712686803457</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43524</v>
       </c>
       <c r="B62">
-        <v>0.7518807000000001</v>
-      </c>
-      <c r="C62">
         <v>-0.002571002764524044</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43555</v>
       </c>
       <c r="B63">
-        <v>0.7511205000000001</v>
-      </c>
-      <c r="C63">
         <v>-0.000433933657697172</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43585</v>
       </c>
       <c r="B64">
-        <v>0.7598748</v>
-      </c>
-      <c r="C64">
         <v>0.004999256190536316</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43616</v>
       </c>
       <c r="B65">
-        <v>0.7751683</v>
-      </c>
-      <c r="C65">
         <v>0.008690106818962429</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43646</v>
       </c>
       <c r="B66">
-        <v>0.8021773000000001</v>
-      </c>
-      <c r="C66">
         <v>0.01521489539893217</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43677</v>
       </c>
       <c r="B67">
-        <v>0.8199316000000001</v>
-      </c>
-      <c r="C67">
         <v>0.00985158341523884</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43708</v>
       </c>
       <c r="B68">
-        <v>0.8231873000000001</v>
-      </c>
-      <c r="C68">
         <v>0.001788913385535995</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43738</v>
       </c>
       <c r="B69">
-        <v>0.8448507000000001</v>
-      </c>
-      <c r="C69">
         <v>0.0118821582401325</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43769</v>
       </c>
       <c r="B70">
-        <v>0.8683638</v>
-      </c>
-      <c r="C70">
         <v>0.01274525900659595</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43799</v>
       </c>
       <c r="B71">
-        <v>0.8647212</v>
-      </c>
-      <c r="C71">
         <v>-0.001949620304139921</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43830</v>
       </c>
       <c r="B72">
-        <v>0.8874755999999999</v>
-      </c>
-      <c r="C72">
         <v>0.01220257484067866</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43861</v>
       </c>
       <c r="B73">
-        <v>0.8974138</v>
-      </c>
-      <c r="C73">
         <v>0.005265339589025642</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43890</v>
       </c>
       <c r="B74">
-        <v>0.8797699999999999</v>
-      </c>
-      <c r="C74">
         <v>-0.009298867753570694</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43921</v>
       </c>
       <c r="B75">
-        <v>0.8429774999999999</v>
-      </c>
-      <c r="C75">
         <v>-0.01957287327704982</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43951</v>
       </c>
       <c r="B76">
-        <v>0.8642345</v>
-      </c>
-      <c r="C76">
         <v>0.01153405291166076</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43982</v>
       </c>
       <c r="B77">
-        <v>0.8912450999999999</v>
-      </c>
-      <c r="C77">
         <v>0.01448884247126636</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>44012</v>
       </c>
       <c r="B78">
-        <v>0.91196605</v>
-      </c>
-      <c r="C78">
         <v>0.01095624781790572</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>44043</v>
       </c>
       <c r="B79">
-        <v>0.92785571</v>
-      </c>
-      <c r="C79">
         <v>0.008310639197803837</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44074</v>
       </c>
       <c r="B80">
-        <v>0.9168817</v>
-      </c>
-      <c r="C80">
         <v>-0.005692339910646105</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44104</v>
       </c>
       <c r="B81">
-        <v>0.8762494700000001</v>
-      </c>
-      <c r="C81">
         <v>-0.02119704622356189</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44135</v>
       </c>
       <c r="B82">
-        <v>0.8669476700000001</v>
-      </c>
-      <c r="C82">
         <v>-0.004957656297166046</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44165</v>
       </c>
       <c r="B83">
-        <v>0.8774303000000001</v>
-      </c>
-      <c r="C83">
-        <v>0.005614849397465926</v>
+        <v>0.003021991505525179</v>
       </c>
     </row>
   </sheetData>
